--- a/xlsx/CONCAT-CONALITEG.xlsx
+++ b/xlsx/CONCAT-CONALITEG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18abefc2ff10592d/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\incognia\CONALITEG\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{D9B915F1-BA71-4CB3-81F8-7BF22B0FD892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3961AF-6844-4F1E-8CE3-E6D20B25D4BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39106C-65DF-4029-9CF8-764CED9D5A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14355" yWindow="240" windowWidth="14115" windowHeight="15720" xr2:uid="{B9DB110D-2079-4336-B039-3E23845B8258}"/>
+    <workbookView xWindow="-18465" yWindow="240" windowWidth="14100" windowHeight="15720" xr2:uid="{B9DB110D-2079-4336-B039-3E23845B8258}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
     <t>399</t>
   </si>
   <si>
-    <t>P6SDA</t>
+    <t>S3SAA</t>
   </si>
 </sst>
 </file>
@@ -1298,11 +1298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1621,7 +1620,7 @@
   <dimension ref="A1:H400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F400" sqref="F1:F400"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1639,7 @@
       </c>
       <c r="B1" t="str">
         <f>$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>259</v>
@@ -1651,9 +1650,9 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1,E1)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/000.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/000.jpg</v>
       </c>
       <c r="H1" t="s">
         <v>403</v>
@@ -1665,7 +1664,7 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>259</v>
@@ -1676,9 +1675,9 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="1">_xlfn.CONCAT(A2,B2,C2,D2,E2)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/001.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/001.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,7 +1686,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>259</v>
@@ -1698,9 +1697,9 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/002.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/002.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,7 +1708,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>259</v>
@@ -1720,9 +1719,9 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/003.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/003.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1731,7 +1730,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>259</v>
@@ -1742,9 +1741,9 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/004.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/004.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,7 +1752,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>259</v>
@@ -1764,9 +1763,9 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/005.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/005.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,7 +1774,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>259</v>
@@ -1786,9 +1785,9 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/006.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/006.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,7 +1796,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>259</v>
@@ -1808,9 +1807,9 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/007.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/007.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,7 +1818,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>259</v>
@@ -1830,9 +1829,9 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/008.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/008.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,7 +1840,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>259</v>
@@ -1852,9 +1851,9 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/009.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/009.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1863,7 +1862,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>259</v>
@@ -1874,9 +1873,9 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/010.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/010.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,7 +1884,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>259</v>
@@ -1896,9 +1895,9 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/011.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/011.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1907,7 +1906,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>259</v>
@@ -1918,9 +1917,9 @@
       <c r="E13" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/012.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/012.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1929,7 +1928,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>259</v>
@@ -1940,9 +1939,9 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/013.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/013.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,7 +1950,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>259</v>
@@ -1962,9 +1961,9 @@
       <c r="E15" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/014.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/014.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,7 +1972,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>259</v>
@@ -1984,9 +1983,9 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/015.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/015.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,7 +1994,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>259</v>
@@ -2006,9 +2005,9 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/016.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/016.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,7 +2016,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>259</v>
@@ -2028,9 +2027,9 @@
       <c r="E18" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/017.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/017.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2038,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>259</v>
@@ -2050,9 +2049,9 @@
       <c r="E19" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/018.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/018.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,7 +2060,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>259</v>
@@ -2072,9 +2071,9 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/019.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/019.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,7 +2082,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>259</v>
@@ -2094,9 +2093,9 @@
       <c r="E21" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/020.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/020.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,7 +2104,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>259</v>
@@ -2116,9 +2115,9 @@
       <c r="E22" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/021.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/021.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,7 +2126,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>259</v>
@@ -2138,9 +2137,9 @@
       <c r="E23" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/022.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/022.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,7 +2148,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>259</v>
@@ -2160,9 +2159,9 @@
       <c r="E24" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/023.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/023.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,7 +2170,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>259</v>
@@ -2182,9 +2181,9 @@
       <c r="E25" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/024.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/024.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,7 +2192,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>259</v>
@@ -2204,9 +2203,9 @@
       <c r="E26" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/025.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/025.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,7 +2214,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>259</v>
@@ -2226,9 +2225,9 @@
       <c r="E27" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/026.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/026.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,7 +2236,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>259</v>
@@ -2248,9 +2247,9 @@
       <c r="E28" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/027.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/027.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,7 +2258,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>259</v>
@@ -2270,9 +2269,9 @@
       <c r="E29" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/028.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/028.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,7 +2280,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>259</v>
@@ -2292,9 +2291,9 @@
       <c r="E30" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/029.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/029.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,7 +2302,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>259</v>
@@ -2314,9 +2313,9 @@
       <c r="E31" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/030.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/030.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,7 +2324,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>259</v>
@@ -2336,9 +2335,9 @@
       <c r="E32" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/031.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/031.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,7 +2346,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>259</v>
@@ -2358,9 +2357,9 @@
       <c r="E33" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/032.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/032.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,7 +2368,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>259</v>
@@ -2380,9 +2379,9 @@
       <c r="E34" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/033.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/033.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,7 +2390,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>259</v>
@@ -2402,9 +2401,9 @@
       <c r="E35" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="3" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/034.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/034.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,7 +2412,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>259</v>
@@ -2424,9 +2423,9 @@
       <c r="E36" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="3" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/035.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/035.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,7 +2434,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>259</v>
@@ -2446,9 +2445,9 @@
       <c r="E37" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="3" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/036.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/036.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,7 +2456,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>259</v>
@@ -2468,9 +2467,9 @@
       <c r="E38" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="3" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/037.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/037.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,7 +2478,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>259</v>
@@ -2490,9 +2489,9 @@
       <c r="E39" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="3" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/038.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/038.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,7 +2500,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>259</v>
@@ -2512,9 +2511,9 @@
       <c r="E40" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="3" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/039.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/039.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,7 +2522,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>259</v>
@@ -2534,9 +2533,9 @@
       <c r="E41" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/040.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/040.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,7 +2544,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>259</v>
@@ -2556,9 +2555,9 @@
       <c r="E42" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="3" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/041.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/041.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,7 +2566,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>259</v>
@@ -2578,9 +2577,9 @@
       <c r="E43" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/042.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/042.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,7 +2588,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>259</v>
@@ -2600,9 +2599,9 @@
       <c r="E44" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/043.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/043.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,7 +2610,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>259</v>
@@ -2622,9 +2621,9 @@
       <c r="E45" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/044.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/044.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2633,7 +2632,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>259</v>
@@ -2644,9 +2643,9 @@
       <c r="E46" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/045.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/045.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,7 +2654,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>259</v>
@@ -2666,9 +2665,9 @@
       <c r="E47" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/046.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/046.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2677,7 +2676,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>259</v>
@@ -2688,9 +2687,9 @@
       <c r="E48" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/047.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/047.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,7 +2698,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>259</v>
@@ -2710,9 +2709,9 @@
       <c r="E49" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/048.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/048.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2721,7 +2720,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>259</v>
@@ -2732,9 +2731,9 @@
       <c r="E50" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="3" t="str">
+      <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/049.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/049.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2743,7 +2742,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>259</v>
@@ -2754,9 +2753,9 @@
       <c r="E51" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="3" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/050.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/050.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,7 +2764,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>259</v>
@@ -2776,9 +2775,9 @@
       <c r="E52" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/051.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/051.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2787,7 +2786,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>259</v>
@@ -2798,9 +2797,9 @@
       <c r="E53" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="3" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/052.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/052.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,7 +2808,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>259</v>
@@ -2820,9 +2819,9 @@
       <c r="E54" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="3" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/053.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/053.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,7 +2830,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>259</v>
@@ -2842,9 +2841,9 @@
       <c r="E55" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="3" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/054.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/054.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,7 +2852,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>259</v>
@@ -2864,9 +2863,9 @@
       <c r="E56" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="3" t="str">
+      <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/055.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/055.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,7 +2874,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>259</v>
@@ -2886,9 +2885,9 @@
       <c r="E57" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="str">
+      <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/056.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/056.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,7 +2896,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>259</v>
@@ -2908,9 +2907,9 @@
       <c r="E58" t="s">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="str">
+      <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/057.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/057.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,7 +2918,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>259</v>
@@ -2930,9 +2929,9 @@
       <c r="E59" t="s">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="str">
+      <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/058.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/058.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,7 +2940,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>259</v>
@@ -2952,9 +2951,9 @@
       <c r="E60" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="3" t="str">
+      <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/059.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/059.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2963,7 +2962,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>259</v>
@@ -2974,9 +2973,9 @@
       <c r="E61" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="3" t="str">
+      <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/060.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/060.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,7 +2984,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>259</v>
@@ -2996,9 +2995,9 @@
       <c r="E62" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="str">
+      <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/061.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/061.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,7 +3006,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>259</v>
@@ -3018,9 +3017,9 @@
       <c r="E63" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="3" t="str">
+      <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/062.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/062.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,7 +3028,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>259</v>
@@ -3040,9 +3039,9 @@
       <c r="E64" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="3" t="str">
+      <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/063.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/063.jpg</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,7 +3050,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>259</v>
@@ -3062,9 +3061,9 @@
       <c r="E65" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="3" t="str">
+      <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/064.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/064.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,7 +3072,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="2">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>259</v>
@@ -3084,9 +3083,9 @@
       <c r="E66" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="3" t="str">
+      <c r="F66" t="str">
         <f t="shared" ref="F66:F129" si="3">_xlfn.CONCAT(A66,B66,C66,D66,E66)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/065.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/065.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,7 +3094,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>259</v>
@@ -3106,9 +3105,9 @@
       <c r="E67" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="3" t="str">
+      <c r="F67" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/066.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/066.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,7 +3116,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>259</v>
@@ -3128,9 +3127,9 @@
       <c r="E68" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="3" t="str">
+      <c r="F68" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/067.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/067.jpg</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3139,7 +3138,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>259</v>
@@ -3150,9 +3149,9 @@
       <c r="E69" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="3" t="str">
+      <c r="F69" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/068.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/068.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,7 +3160,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>259</v>
@@ -3172,9 +3171,9 @@
       <c r="E70" t="s">
         <v>0</v>
       </c>
-      <c r="F70" s="3" t="str">
+      <c r="F70" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/069.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/069.jpg</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3183,7 +3182,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>259</v>
@@ -3194,9 +3193,9 @@
       <c r="E71" t="s">
         <v>0</v>
       </c>
-      <c r="F71" s="3" t="str">
+      <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/070.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/070.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3204,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>259</v>
@@ -3216,9 +3215,9 @@
       <c r="E72" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="3" t="str">
+      <c r="F72" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/071.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/071.jpg</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3227,7 +3226,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>259</v>
@@ -3238,9 +3237,9 @@
       <c r="E73" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="3" t="str">
+      <c r="F73" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/072.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/072.jpg</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,7 +3248,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>259</v>
@@ -3260,9 +3259,9 @@
       <c r="E74" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="3" t="str">
+      <c r="F74" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/073.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/073.jpg</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,7 +3270,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>259</v>
@@ -3282,9 +3281,9 @@
       <c r="E75" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="3" t="str">
+      <c r="F75" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/074.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/074.jpg</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,7 +3292,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>259</v>
@@ -3304,9 +3303,9 @@
       <c r="E76" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="3" t="str">
+      <c r="F76" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/075.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/075.jpg</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,7 +3314,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>259</v>
@@ -3326,9 +3325,9 @@
       <c r="E77" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="3" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/076.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/076.jpg</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,7 +3336,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>259</v>
@@ -3348,9 +3347,9 @@
       <c r="E78" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="3" t="str">
+      <c r="F78" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/077.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/077.jpg</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,7 +3358,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>259</v>
@@ -3370,9 +3369,9 @@
       <c r="E79" t="s">
         <v>0</v>
       </c>
-      <c r="F79" s="3" t="str">
+      <c r="F79" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/078.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/078.jpg</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,7 +3380,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>259</v>
@@ -3392,9 +3391,9 @@
       <c r="E80" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="3" t="str">
+      <c r="F80" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/079.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/079.jpg</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,7 +3402,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>259</v>
@@ -3414,9 +3413,9 @@
       <c r="E81" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="3" t="str">
+      <c r="F81" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/080.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/080.jpg</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,7 +3424,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>259</v>
@@ -3436,9 +3435,9 @@
       <c r="E82" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="3" t="str">
+      <c r="F82" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/081.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/081.jpg</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,7 +3446,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>259</v>
@@ -3458,9 +3457,9 @@
       <c r="E83" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="str">
+      <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/082.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/082.jpg</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3469,7 +3468,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>259</v>
@@ -3480,9 +3479,9 @@
       <c r="E84" t="s">
         <v>0</v>
       </c>
-      <c r="F84" s="3" t="str">
+      <c r="F84" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/083.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/083.jpg</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,7 +3490,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>259</v>
@@ -3502,9 +3501,9 @@
       <c r="E85" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="3" t="str">
+      <c r="F85" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/084.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/084.jpg</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,7 +3512,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>259</v>
@@ -3524,9 +3523,9 @@
       <c r="E86" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="3" t="str">
+      <c r="F86" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/085.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/085.jpg</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,7 +3534,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>259</v>
@@ -3546,9 +3545,9 @@
       <c r="E87" t="s">
         <v>0</v>
       </c>
-      <c r="F87" s="3" t="str">
+      <c r="F87" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/086.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/086.jpg</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,7 +3556,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>259</v>
@@ -3568,9 +3567,9 @@
       <c r="E88" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="3" t="str">
+      <c r="F88" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/087.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/087.jpg</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,7 +3578,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>259</v>
@@ -3590,9 +3589,9 @@
       <c r="E89" t="s">
         <v>0</v>
       </c>
-      <c r="F89" s="3" t="str">
+      <c r="F89" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/088.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/088.jpg</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,7 +3600,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>259</v>
@@ -3612,9 +3611,9 @@
       <c r="E90" t="s">
         <v>0</v>
       </c>
-      <c r="F90" s="3" t="str">
+      <c r="F90" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/089.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/089.jpg</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,7 +3622,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>259</v>
@@ -3634,9 +3633,9 @@
       <c r="E91" t="s">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="str">
+      <c r="F91" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/090.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/090.jpg</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,7 +3644,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>259</v>
@@ -3656,9 +3655,9 @@
       <c r="E92" t="s">
         <v>0</v>
       </c>
-      <c r="F92" s="3" t="str">
+      <c r="F92" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/091.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/091.jpg</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3667,7 +3666,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>259</v>
@@ -3678,9 +3677,9 @@
       <c r="E93" t="s">
         <v>0</v>
       </c>
-      <c r="F93" s="3" t="str">
+      <c r="F93" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/092.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/092.jpg</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3689,7 +3688,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>259</v>
@@ -3700,9 +3699,9 @@
       <c r="E94" t="s">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="str">
+      <c r="F94" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/093.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/093.jpg</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3711,7 +3710,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>259</v>
@@ -3722,9 +3721,9 @@
       <c r="E95" t="s">
         <v>0</v>
       </c>
-      <c r="F95" s="3" t="str">
+      <c r="F95" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/094.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/094.jpg</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,7 +3732,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>259</v>
@@ -3744,9 +3743,9 @@
       <c r="E96" t="s">
         <v>0</v>
       </c>
-      <c r="F96" s="3" t="str">
+      <c r="F96" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/095.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/095.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,7 +3754,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>259</v>
@@ -3766,9 +3765,9 @@
       <c r="E97" t="s">
         <v>0</v>
       </c>
-      <c r="F97" s="3" t="str">
+      <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/096.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/096.jpg</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,7 +3776,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>259</v>
@@ -3788,9 +3787,9 @@
       <c r="E98" t="s">
         <v>0</v>
       </c>
-      <c r="F98" s="3" t="str">
+      <c r="F98" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/097.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/097.jpg</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,7 +3798,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>259</v>
@@ -3810,9 +3809,9 @@
       <c r="E99" t="s">
         <v>0</v>
       </c>
-      <c r="F99" s="3" t="str">
+      <c r="F99" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/098.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/098.jpg</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3821,7 +3820,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>259</v>
@@ -3832,9 +3831,9 @@
       <c r="E100" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="str">
+      <c r="F100" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/099.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/099.jpg</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3843,7 +3842,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>259</v>
@@ -3854,9 +3853,9 @@
       <c r="E101" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="str">
+      <c r="F101" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/100.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/100.jpg</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,7 +3864,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>259</v>
@@ -3876,9 +3875,9 @@
       <c r="E102" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="3" t="str">
+      <c r="F102" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/101.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/101.jpg</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,7 +3886,7 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>259</v>
@@ -3898,9 +3897,9 @@
       <c r="E103" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="3" t="str">
+      <c r="F103" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/102.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/102.jpg</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,7 +3908,7 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>259</v>
@@ -3920,9 +3919,9 @@
       <c r="E104" t="s">
         <v>0</v>
       </c>
-      <c r="F104" s="3" t="str">
+      <c r="F104" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/103.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/103.jpg</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,7 +3930,7 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>259</v>
@@ -3942,9 +3941,9 @@
       <c r="E105" t="s">
         <v>0</v>
       </c>
-      <c r="F105" s="3" t="str">
+      <c r="F105" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/104.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/104.jpg</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3953,7 +3952,7 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>259</v>
@@ -3964,9 +3963,9 @@
       <c r="E106" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="3" t="str">
+      <c r="F106" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/105.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/105.jpg</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,7 +3974,7 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>259</v>
@@ -3986,9 +3985,9 @@
       <c r="E107" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="3" t="str">
+      <c r="F107" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/106.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/106.jpg</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,7 +3996,7 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>259</v>
@@ -4008,9 +4007,9 @@
       <c r="E108" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="3" t="str">
+      <c r="F108" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/107.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/107.jpg</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,7 +4018,7 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>259</v>
@@ -4030,9 +4029,9 @@
       <c r="E109" t="s">
         <v>0</v>
       </c>
-      <c r="F109" s="3" t="str">
+      <c r="F109" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/108.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/108.jpg</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,7 +4040,7 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>259</v>
@@ -4052,9 +4051,9 @@
       <c r="E110" t="s">
         <v>0</v>
       </c>
-      <c r="F110" s="3" t="str">
+      <c r="F110" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/109.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/109.jpg</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,7 +4062,7 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>259</v>
@@ -4074,9 +4073,9 @@
       <c r="E111" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="3" t="str">
+      <c r="F111" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/110.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/110.jpg</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,7 +4084,7 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>259</v>
@@ -4096,9 +4095,9 @@
       <c r="E112" t="s">
         <v>0</v>
       </c>
-      <c r="F112" s="3" t="str">
+      <c r="F112" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/111.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/111.jpg</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,7 +4106,7 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>259</v>
@@ -4118,9 +4117,9 @@
       <c r="E113" t="s">
         <v>0</v>
       </c>
-      <c r="F113" s="3" t="str">
+      <c r="F113" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/112.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/112.jpg</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,7 +4128,7 @@
       </c>
       <c r="B114" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>259</v>
@@ -4140,9 +4139,9 @@
       <c r="E114" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="3" t="str">
+      <c r="F114" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/113.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/113.jpg</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4151,7 +4150,7 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>259</v>
@@ -4162,9 +4161,9 @@
       <c r="E115" t="s">
         <v>0</v>
       </c>
-      <c r="F115" s="3" t="str">
+      <c r="F115" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/114.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/114.jpg</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4173,7 +4172,7 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>259</v>
@@ -4184,9 +4183,9 @@
       <c r="E116" t="s">
         <v>0</v>
       </c>
-      <c r="F116" s="3" t="str">
+      <c r="F116" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/115.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/115.jpg</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4195,7 +4194,7 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>259</v>
@@ -4206,9 +4205,9 @@
       <c r="E117" t="s">
         <v>0</v>
       </c>
-      <c r="F117" s="3" t="str">
+      <c r="F117" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/116.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/116.jpg</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,7 +4216,7 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>259</v>
@@ -4228,9 +4227,9 @@
       <c r="E118" t="s">
         <v>0</v>
       </c>
-      <c r="F118" s="3" t="str">
+      <c r="F118" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/117.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/117.jpg</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,7 +4238,7 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>259</v>
@@ -4250,9 +4249,9 @@
       <c r="E119" t="s">
         <v>0</v>
       </c>
-      <c r="F119" s="3" t="str">
+      <c r="F119" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/118.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/118.jpg</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4261,7 +4260,7 @@
       </c>
       <c r="B120" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>259</v>
@@ -4272,9 +4271,9 @@
       <c r="E120" t="s">
         <v>0</v>
       </c>
-      <c r="F120" s="3" t="str">
+      <c r="F120" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/119.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/119.jpg</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4283,7 +4282,7 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>259</v>
@@ -4294,9 +4293,9 @@
       <c r="E121" t="s">
         <v>0</v>
       </c>
-      <c r="F121" s="3" t="str">
+      <c r="F121" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/120.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/120.jpg</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4304,7 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>259</v>
@@ -4316,9 +4315,9 @@
       <c r="E122" t="s">
         <v>0</v>
       </c>
-      <c r="F122" s="3" t="str">
+      <c r="F122" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/121.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/121.jpg</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,7 +4326,7 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>259</v>
@@ -4338,9 +4337,9 @@
       <c r="E123" t="s">
         <v>0</v>
       </c>
-      <c r="F123" s="3" t="str">
+      <c r="F123" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/122.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/122.jpg</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4349,7 +4348,7 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>259</v>
@@ -4360,9 +4359,9 @@
       <c r="E124" t="s">
         <v>0</v>
       </c>
-      <c r="F124" s="3" t="str">
+      <c r="F124" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/123.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/123.jpg</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4371,7 +4370,7 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>259</v>
@@ -4382,9 +4381,9 @@
       <c r="E125" t="s">
         <v>0</v>
       </c>
-      <c r="F125" s="3" t="str">
+      <c r="F125" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/124.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/124.jpg</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4393,7 +4392,7 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>259</v>
@@ -4404,9 +4403,9 @@
       <c r="E126" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="3" t="str">
+      <c r="F126" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/125.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/125.jpg</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,7 +4414,7 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>259</v>
@@ -4426,9 +4425,9 @@
       <c r="E127" t="s">
         <v>0</v>
       </c>
-      <c r="F127" s="3" t="str">
+      <c r="F127" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/126.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/126.jpg</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,7 +4436,7 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>259</v>
@@ -4448,9 +4447,9 @@
       <c r="E128" t="s">
         <v>0</v>
       </c>
-      <c r="F128" s="3" t="str">
+      <c r="F128" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/127.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/127.jpg</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,7 +4458,7 @@
       </c>
       <c r="B129" t="str">
         <f t="shared" si="2"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>259</v>
@@ -4470,9 +4469,9 @@
       <c r="E129" t="s">
         <v>0</v>
       </c>
-      <c r="F129" s="3" t="str">
+      <c r="F129" t="str">
         <f t="shared" si="3"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/128.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/128.jpg</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4481,7 +4480,7 @@
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B193" si="4">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>259</v>
@@ -4492,9 +4491,9 @@
       <c r="E130" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="3" t="str">
+      <c r="F130" t="str">
         <f t="shared" ref="F130:F193" si="5">_xlfn.CONCAT(A130,B130,C130,D130,E130)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/129.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/129.jpg</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4503,7 +4502,7 @@
       </c>
       <c r="B131" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>259</v>
@@ -4514,9 +4513,9 @@
       <c r="E131" t="s">
         <v>0</v>
       </c>
-      <c r="F131" s="3" t="str">
+      <c r="F131" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/130.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/130.jpg</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,7 +4524,7 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>259</v>
@@ -4536,9 +4535,9 @@
       <c r="E132" t="s">
         <v>0</v>
       </c>
-      <c r="F132" s="3" t="str">
+      <c r="F132" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/131.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/131.jpg</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,7 +4546,7 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>259</v>
@@ -4558,9 +4557,9 @@
       <c r="E133" t="s">
         <v>0</v>
       </c>
-      <c r="F133" s="3" t="str">
+      <c r="F133" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/132.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/132.jpg</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,7 +4568,7 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>259</v>
@@ -4580,9 +4579,9 @@
       <c r="E134" t="s">
         <v>0</v>
       </c>
-      <c r="F134" s="3" t="str">
+      <c r="F134" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/133.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/133.jpg</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4591,7 +4590,7 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>259</v>
@@ -4602,9 +4601,9 @@
       <c r="E135" t="s">
         <v>0</v>
       </c>
-      <c r="F135" s="3" t="str">
+      <c r="F135" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/134.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/134.jpg</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4613,7 +4612,7 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>259</v>
@@ -4624,9 +4623,9 @@
       <c r="E136" t="s">
         <v>0</v>
       </c>
-      <c r="F136" s="3" t="str">
+      <c r="F136" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/135.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/135.jpg</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4635,7 +4634,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>259</v>
@@ -4646,9 +4645,9 @@
       <c r="E137" t="s">
         <v>0</v>
       </c>
-      <c r="F137" s="3" t="str">
+      <c r="F137" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/136.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/136.jpg</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4657,7 +4656,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>259</v>
@@ -4668,9 +4667,9 @@
       <c r="E138" t="s">
         <v>0</v>
       </c>
-      <c r="F138" s="3" t="str">
+      <c r="F138" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/137.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/137.jpg</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,7 +4678,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>259</v>
@@ -4690,9 +4689,9 @@
       <c r="E139" t="s">
         <v>0</v>
       </c>
-      <c r="F139" s="3" t="str">
+      <c r="F139" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/138.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/138.jpg</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4701,7 +4700,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>259</v>
@@ -4712,9 +4711,9 @@
       <c r="E140" t="s">
         <v>0</v>
       </c>
-      <c r="F140" s="3" t="str">
+      <c r="F140" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/139.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/139.jpg</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4723,7 +4722,7 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>259</v>
@@ -4734,9 +4733,9 @@
       <c r="E141" t="s">
         <v>0</v>
       </c>
-      <c r="F141" s="3" t="str">
+      <c r="F141" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/140.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/140.jpg</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,7 +4744,7 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>259</v>
@@ -4756,9 +4755,9 @@
       <c r="E142" t="s">
         <v>0</v>
       </c>
-      <c r="F142" s="3" t="str">
+      <c r="F142" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/141.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/141.jpg</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4767,7 +4766,7 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>259</v>
@@ -4778,9 +4777,9 @@
       <c r="E143" t="s">
         <v>0</v>
       </c>
-      <c r="F143" s="3" t="str">
+      <c r="F143" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/142.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/142.jpg</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,7 +4788,7 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>259</v>
@@ -4800,9 +4799,9 @@
       <c r="E144" t="s">
         <v>0</v>
       </c>
-      <c r="F144" s="3" t="str">
+      <c r="F144" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/143.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/143.jpg</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4811,7 +4810,7 @@
       </c>
       <c r="B145" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>259</v>
@@ -4822,9 +4821,9 @@
       <c r="E145" t="s">
         <v>0</v>
       </c>
-      <c r="F145" s="3" t="str">
+      <c r="F145" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/144.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/144.jpg</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4833,7 +4832,7 @@
       </c>
       <c r="B146" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>259</v>
@@ -4844,9 +4843,9 @@
       <c r="E146" t="s">
         <v>0</v>
       </c>
-      <c r="F146" s="3" t="str">
+      <c r="F146" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/145.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/145.jpg</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,7 +4854,7 @@
       </c>
       <c r="B147" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>259</v>
@@ -4866,9 +4865,9 @@
       <c r="E147" t="s">
         <v>0</v>
       </c>
-      <c r="F147" s="3" t="str">
+      <c r="F147" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/146.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/146.jpg</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,7 +4876,7 @@
       </c>
       <c r="B148" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>259</v>
@@ -4888,9 +4887,9 @@
       <c r="E148" t="s">
         <v>0</v>
       </c>
-      <c r="F148" s="3" t="str">
+      <c r="F148" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/147.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/147.jpg</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,7 +4898,7 @@
       </c>
       <c r="B149" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>259</v>
@@ -4910,9 +4909,9 @@
       <c r="E149" t="s">
         <v>0</v>
       </c>
-      <c r="F149" s="3" t="str">
+      <c r="F149" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/148.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/148.jpg</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4921,7 +4920,7 @@
       </c>
       <c r="B150" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>259</v>
@@ -4932,9 +4931,9 @@
       <c r="E150" t="s">
         <v>0</v>
       </c>
-      <c r="F150" s="3" t="str">
+      <c r="F150" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/149.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/149.jpg</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4943,7 +4942,7 @@
       </c>
       <c r="B151" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>259</v>
@@ -4954,9 +4953,9 @@
       <c r="E151" t="s">
         <v>0</v>
       </c>
-      <c r="F151" s="3" t="str">
+      <c r="F151" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/150.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/150.jpg</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,7 +4964,7 @@
       </c>
       <c r="B152" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>259</v>
@@ -4976,9 +4975,9 @@
       <c r="E152" t="s">
         <v>0</v>
       </c>
-      <c r="F152" s="3" t="str">
+      <c r="F152" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/151.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/151.jpg</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4987,7 +4986,7 @@
       </c>
       <c r="B153" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>259</v>
@@ -4998,9 +4997,9 @@
       <c r="E153" t="s">
         <v>0</v>
       </c>
-      <c r="F153" s="3" t="str">
+      <c r="F153" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/152.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/152.jpg</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,7 +5008,7 @@
       </c>
       <c r="B154" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>259</v>
@@ -5020,9 +5019,9 @@
       <c r="E154" t="s">
         <v>0</v>
       </c>
-      <c r="F154" s="3" t="str">
+      <c r="F154" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/153.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/153.jpg</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5031,7 +5030,7 @@
       </c>
       <c r="B155" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>259</v>
@@ -5042,9 +5041,9 @@
       <c r="E155" t="s">
         <v>0</v>
       </c>
-      <c r="F155" s="3" t="str">
+      <c r="F155" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/154.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/154.jpg</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5053,7 +5052,7 @@
       </c>
       <c r="B156" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>259</v>
@@ -5064,9 +5063,9 @@
       <c r="E156" t="s">
         <v>0</v>
       </c>
-      <c r="F156" s="3" t="str">
+      <c r="F156" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/155.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/155.jpg</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5075,7 +5074,7 @@
       </c>
       <c r="B157" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>259</v>
@@ -5086,9 +5085,9 @@
       <c r="E157" t="s">
         <v>0</v>
       </c>
-      <c r="F157" s="3" t="str">
+      <c r="F157" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/156.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/156.jpg</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,7 +5096,7 @@
       </c>
       <c r="B158" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>259</v>
@@ -5108,9 +5107,9 @@
       <c r="E158" t="s">
         <v>0</v>
       </c>
-      <c r="F158" s="3" t="str">
+      <c r="F158" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/157.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/157.jpg</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,7 +5118,7 @@
       </c>
       <c r="B159" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>259</v>
@@ -5130,9 +5129,9 @@
       <c r="E159" t="s">
         <v>0</v>
       </c>
-      <c r="F159" s="3" t="str">
+      <c r="F159" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/158.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/158.jpg</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5141,7 +5140,7 @@
       </c>
       <c r="B160" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>259</v>
@@ -5152,9 +5151,9 @@
       <c r="E160" t="s">
         <v>0</v>
       </c>
-      <c r="F160" s="3" t="str">
+      <c r="F160" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/159.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/159.jpg</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,7 +5162,7 @@
       </c>
       <c r="B161" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>259</v>
@@ -5174,9 +5173,9 @@
       <c r="E161" t="s">
         <v>0</v>
       </c>
-      <c r="F161" s="3" t="str">
+      <c r="F161" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/160.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/160.jpg</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,7 +5184,7 @@
       </c>
       <c r="B162" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>259</v>
@@ -5196,9 +5195,9 @@
       <c r="E162" t="s">
         <v>0</v>
       </c>
-      <c r="F162" s="3" t="str">
+      <c r="F162" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/161.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/161.jpg</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,7 +5206,7 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>259</v>
@@ -5218,9 +5217,9 @@
       <c r="E163" t="s">
         <v>0</v>
       </c>
-      <c r="F163" s="3" t="str">
+      <c r="F163" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/162.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/162.jpg</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5229,7 +5228,7 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>259</v>
@@ -5240,9 +5239,9 @@
       <c r="E164" t="s">
         <v>0</v>
       </c>
-      <c r="F164" s="3" t="str">
+      <c r="F164" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/163.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/163.jpg</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5251,7 +5250,7 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>259</v>
@@ -5262,9 +5261,9 @@
       <c r="E165" t="s">
         <v>0</v>
       </c>
-      <c r="F165" s="3" t="str">
+      <c r="F165" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/164.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/164.jpg</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5273,7 +5272,7 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>259</v>
@@ -5284,9 +5283,9 @@
       <c r="E166" t="s">
         <v>0</v>
       </c>
-      <c r="F166" s="3" t="str">
+      <c r="F166" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/165.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/165.jpg</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5295,7 +5294,7 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>259</v>
@@ -5306,9 +5305,9 @@
       <c r="E167" t="s">
         <v>0</v>
       </c>
-      <c r="F167" s="3" t="str">
+      <c r="F167" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/166.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/166.jpg</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5317,7 +5316,7 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>259</v>
@@ -5328,9 +5327,9 @@
       <c r="E168" t="s">
         <v>0</v>
       </c>
-      <c r="F168" s="3" t="str">
+      <c r="F168" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/167.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/167.jpg</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5339,7 +5338,7 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>259</v>
@@ -5350,9 +5349,9 @@
       <c r="E169" t="s">
         <v>0</v>
       </c>
-      <c r="F169" s="3" t="str">
+      <c r="F169" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/168.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/168.jpg</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5361,7 +5360,7 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>259</v>
@@ -5372,9 +5371,9 @@
       <c r="E170" t="s">
         <v>0</v>
       </c>
-      <c r="F170" s="3" t="str">
+      <c r="F170" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/169.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/169.jpg</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,7 +5382,7 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>259</v>
@@ -5394,9 +5393,9 @@
       <c r="E171" t="s">
         <v>0</v>
       </c>
-      <c r="F171" s="3" t="str">
+      <c r="F171" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/170.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/170.jpg</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5405,7 +5404,7 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>259</v>
@@ -5416,9 +5415,9 @@
       <c r="E172" t="s">
         <v>0</v>
       </c>
-      <c r="F172" s="3" t="str">
+      <c r="F172" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/171.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/171.jpg</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5427,7 +5426,7 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>259</v>
@@ -5438,9 +5437,9 @@
       <c r="E173" t="s">
         <v>0</v>
       </c>
-      <c r="F173" s="3" t="str">
+      <c r="F173" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/172.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/172.jpg</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5449,7 +5448,7 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>259</v>
@@ -5460,9 +5459,9 @@
       <c r="E174" t="s">
         <v>0</v>
       </c>
-      <c r="F174" s="3" t="str">
+      <c r="F174" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/173.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/173.jpg</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5471,7 +5470,7 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>259</v>
@@ -5482,9 +5481,9 @@
       <c r="E175" t="s">
         <v>0</v>
       </c>
-      <c r="F175" s="3" t="str">
+      <c r="F175" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/174.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/174.jpg</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5493,7 +5492,7 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>259</v>
@@ -5504,9 +5503,9 @@
       <c r="E176" t="s">
         <v>0</v>
       </c>
-      <c r="F176" s="3" t="str">
+      <c r="F176" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/175.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/175.jpg</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5515,7 +5514,7 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>259</v>
@@ -5526,9 +5525,9 @@
       <c r="E177" t="s">
         <v>0</v>
       </c>
-      <c r="F177" s="3" t="str">
+      <c r="F177" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/176.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/176.jpg</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,7 +5536,7 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>259</v>
@@ -5548,9 +5547,9 @@
       <c r="E178" t="s">
         <v>0</v>
       </c>
-      <c r="F178" s="3" t="str">
+      <c r="F178" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/177.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/177.jpg</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5559,7 +5558,7 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>259</v>
@@ -5570,9 +5569,9 @@
       <c r="E179" t="s">
         <v>0</v>
       </c>
-      <c r="F179" s="3" t="str">
+      <c r="F179" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/178.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/178.jpg</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5581,7 +5580,7 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>259</v>
@@ -5592,9 +5591,9 @@
       <c r="E180" t="s">
         <v>0</v>
       </c>
-      <c r="F180" s="3" t="str">
+      <c r="F180" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/179.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/179.jpg</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5603,7 +5602,7 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>259</v>
@@ -5614,9 +5613,9 @@
       <c r="E181" t="s">
         <v>0</v>
       </c>
-      <c r="F181" s="3" t="str">
+      <c r="F181" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/180.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/180.jpg</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,7 +5624,7 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>259</v>
@@ -5636,9 +5635,9 @@
       <c r="E182" t="s">
         <v>0</v>
       </c>
-      <c r="F182" s="3" t="str">
+      <c r="F182" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/181.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/181.jpg</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5647,7 +5646,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>259</v>
@@ -5658,9 +5657,9 @@
       <c r="E183" t="s">
         <v>0</v>
       </c>
-      <c r="F183" s="3" t="str">
+      <c r="F183" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/182.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/182.jpg</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5669,7 +5668,7 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>259</v>
@@ -5680,9 +5679,9 @@
       <c r="E184" t="s">
         <v>0</v>
       </c>
-      <c r="F184" s="3" t="str">
+      <c r="F184" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/183.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/183.jpg</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5691,7 +5690,7 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>259</v>
@@ -5702,9 +5701,9 @@
       <c r="E185" t="s">
         <v>0</v>
       </c>
-      <c r="F185" s="3" t="str">
+      <c r="F185" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/184.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/184.jpg</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5713,7 +5712,7 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>259</v>
@@ -5724,9 +5723,9 @@
       <c r="E186" t="s">
         <v>0</v>
       </c>
-      <c r="F186" s="3" t="str">
+      <c r="F186" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/185.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/185.jpg</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5735,7 +5734,7 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>259</v>
@@ -5746,9 +5745,9 @@
       <c r="E187" t="s">
         <v>0</v>
       </c>
-      <c r="F187" s="3" t="str">
+      <c r="F187" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/186.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/186.jpg</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,7 +5756,7 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>259</v>
@@ -5768,9 +5767,9 @@
       <c r="E188" t="s">
         <v>0</v>
       </c>
-      <c r="F188" s="3" t="str">
+      <c r="F188" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/187.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/187.jpg</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,7 +5778,7 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>259</v>
@@ -5790,9 +5789,9 @@
       <c r="E189" t="s">
         <v>0</v>
       </c>
-      <c r="F189" s="3" t="str">
+      <c r="F189" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/188.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/188.jpg</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5801,7 +5800,7 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>259</v>
@@ -5812,9 +5811,9 @@
       <c r="E190" t="s">
         <v>0</v>
       </c>
-      <c r="F190" s="3" t="str">
+      <c r="F190" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/189.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/189.jpg</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5823,7 +5822,7 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>259</v>
@@ -5834,9 +5833,9 @@
       <c r="E191" t="s">
         <v>0</v>
       </c>
-      <c r="F191" s="3" t="str">
+      <c r="F191" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/190.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/190.jpg</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,7 +5844,7 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>259</v>
@@ -5856,9 +5855,9 @@
       <c r="E192" t="s">
         <v>0</v>
       </c>
-      <c r="F192" s="3" t="str">
+      <c r="F192" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/191.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/191.jpg</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5867,7 +5866,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="4"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>259</v>
@@ -5878,9 +5877,9 @@
       <c r="E193" t="s">
         <v>0</v>
       </c>
-      <c r="F193" s="3" t="str">
+      <c r="F193" t="str">
         <f t="shared" si="5"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/192.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/192.jpg</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,7 +5888,7 @@
       </c>
       <c r="B194" t="str">
         <f t="shared" ref="B194:B257" si="6">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>259</v>
@@ -5900,9 +5899,9 @@
       <c r="E194" t="s">
         <v>0</v>
       </c>
-      <c r="F194" s="3" t="str">
+      <c r="F194" t="str">
         <f t="shared" ref="F194:F257" si="7">_xlfn.CONCAT(A194,B194,C194,D194,E194)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/193.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/193.jpg</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5911,7 +5910,7 @@
       </c>
       <c r="B195" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>259</v>
@@ -5922,9 +5921,9 @@
       <c r="E195" t="s">
         <v>0</v>
       </c>
-      <c r="F195" s="3" t="str">
+      <c r="F195" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/194.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/194.jpg</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,7 +5932,7 @@
       </c>
       <c r="B196" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>259</v>
@@ -5944,9 +5943,9 @@
       <c r="E196" t="s">
         <v>0</v>
       </c>
-      <c r="F196" s="3" t="str">
+      <c r="F196" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/195.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/195.jpg</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5955,7 +5954,7 @@
       </c>
       <c r="B197" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>259</v>
@@ -5966,9 +5965,9 @@
       <c r="E197" t="s">
         <v>0</v>
       </c>
-      <c r="F197" s="3" t="str">
+      <c r="F197" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/196.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/196.jpg</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5977,7 +5976,7 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>259</v>
@@ -5988,9 +5987,9 @@
       <c r="E198" t="s">
         <v>0</v>
       </c>
-      <c r="F198" s="3" t="str">
+      <c r="F198" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/197.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/197.jpg</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,7 +5998,7 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>259</v>
@@ -6010,9 +6009,9 @@
       <c r="E199" t="s">
         <v>0</v>
       </c>
-      <c r="F199" s="3" t="str">
+      <c r="F199" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/198.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/198.jpg</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6021,7 +6020,7 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>259</v>
@@ -6032,9 +6031,9 @@
       <c r="E200" t="s">
         <v>0</v>
       </c>
-      <c r="F200" s="3" t="str">
+      <c r="F200" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/199.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/199.jpg</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6043,7 +6042,7 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>259</v>
@@ -6054,9 +6053,9 @@
       <c r="E201" t="s">
         <v>0</v>
       </c>
-      <c r="F201" s="3" t="str">
+      <c r="F201" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/200.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/200.jpg</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,7 +6064,7 @@
       </c>
       <c r="B202" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>259</v>
@@ -6076,9 +6075,9 @@
       <c r="E202" t="s">
         <v>0</v>
       </c>
-      <c r="F202" s="3" t="str">
+      <c r="F202" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/201.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/201.jpg</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6087,7 +6086,7 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>259</v>
@@ -6098,9 +6097,9 @@
       <c r="E203" t="s">
         <v>0</v>
       </c>
-      <c r="F203" s="3" t="str">
+      <c r="F203" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/202.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/202.jpg</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6109,7 +6108,7 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>259</v>
@@ -6120,9 +6119,9 @@
       <c r="E204" t="s">
         <v>0</v>
       </c>
-      <c r="F204" s="3" t="str">
+      <c r="F204" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/203.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/203.jpg</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6131,7 +6130,7 @@
       </c>
       <c r="B205" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>259</v>
@@ -6142,9 +6141,9 @@
       <c r="E205" t="s">
         <v>0</v>
       </c>
-      <c r="F205" s="3" t="str">
+      <c r="F205" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/204.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/204.jpg</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6153,7 +6152,7 @@
       </c>
       <c r="B206" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>259</v>
@@ -6164,9 +6163,9 @@
       <c r="E206" t="s">
         <v>0</v>
       </c>
-      <c r="F206" s="3" t="str">
+      <c r="F206" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/205.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/205.jpg</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6175,7 +6174,7 @@
       </c>
       <c r="B207" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>259</v>
@@ -6186,9 +6185,9 @@
       <c r="E207" t="s">
         <v>0</v>
       </c>
-      <c r="F207" s="3" t="str">
+      <c r="F207" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/206.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/206.jpg</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6197,7 +6196,7 @@
       </c>
       <c r="B208" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>259</v>
@@ -6208,9 +6207,9 @@
       <c r="E208" t="s">
         <v>0</v>
       </c>
-      <c r="F208" s="3" t="str">
+      <c r="F208" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/207.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/207.jpg</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,7 +6218,7 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>259</v>
@@ -6230,9 +6229,9 @@
       <c r="E209" t="s">
         <v>0</v>
       </c>
-      <c r="F209" s="3" t="str">
+      <c r="F209" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/208.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/208.jpg</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6241,7 +6240,7 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>259</v>
@@ -6252,9 +6251,9 @@
       <c r="E210" t="s">
         <v>0</v>
       </c>
-      <c r="F210" s="3" t="str">
+      <c r="F210" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/209.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/209.jpg</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,7 +6262,7 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>259</v>
@@ -6274,9 +6273,9 @@
       <c r="E211" t="s">
         <v>0</v>
       </c>
-      <c r="F211" s="3" t="str">
+      <c r="F211" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/210.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/210.jpg</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,7 +6284,7 @@
       </c>
       <c r="B212" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>259</v>
@@ -6296,9 +6295,9 @@
       <c r="E212" t="s">
         <v>0</v>
       </c>
-      <c r="F212" s="3" t="str">
+      <c r="F212" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/211.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/211.jpg</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,7 +6306,7 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>259</v>
@@ -6318,9 +6317,9 @@
       <c r="E213" t="s">
         <v>0</v>
       </c>
-      <c r="F213" s="3" t="str">
+      <c r="F213" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/212.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/212.jpg</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6329,7 +6328,7 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>259</v>
@@ -6340,9 +6339,9 @@
       <c r="E214" t="s">
         <v>0</v>
       </c>
-      <c r="F214" s="3" t="str">
+      <c r="F214" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/213.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/213.jpg</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6351,7 +6350,7 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>259</v>
@@ -6362,9 +6361,9 @@
       <c r="E215" t="s">
         <v>0</v>
       </c>
-      <c r="F215" s="3" t="str">
+      <c r="F215" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/214.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/214.jpg</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6373,7 +6372,7 @@
       </c>
       <c r="B216" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>259</v>
@@ -6384,9 +6383,9 @@
       <c r="E216" t="s">
         <v>0</v>
       </c>
-      <c r="F216" s="3" t="str">
+      <c r="F216" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/215.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/215.jpg</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,7 +6394,7 @@
       </c>
       <c r="B217" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>259</v>
@@ -6406,9 +6405,9 @@
       <c r="E217" t="s">
         <v>0</v>
       </c>
-      <c r="F217" s="3" t="str">
+      <c r="F217" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/216.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/216.jpg</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,7 +6416,7 @@
       </c>
       <c r="B218" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>259</v>
@@ -6428,9 +6427,9 @@
       <c r="E218" t="s">
         <v>0</v>
       </c>
-      <c r="F218" s="3" t="str">
+      <c r="F218" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/217.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/217.jpg</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,7 +6438,7 @@
       </c>
       <c r="B219" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>259</v>
@@ -6450,9 +6449,9 @@
       <c r="E219" t="s">
         <v>0</v>
       </c>
-      <c r="F219" s="3" t="str">
+      <c r="F219" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/218.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/218.jpg</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,7 +6460,7 @@
       </c>
       <c r="B220" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>259</v>
@@ -6472,9 +6471,9 @@
       <c r="E220" t="s">
         <v>0</v>
       </c>
-      <c r="F220" s="3" t="str">
+      <c r="F220" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/219.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/219.jpg</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6483,7 +6482,7 @@
       </c>
       <c r="B221" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>259</v>
@@ -6494,9 +6493,9 @@
       <c r="E221" t="s">
         <v>0</v>
       </c>
-      <c r="F221" s="3" t="str">
+      <c r="F221" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/220.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/220.jpg</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,7 +6504,7 @@
       </c>
       <c r="B222" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>259</v>
@@ -6516,9 +6515,9 @@
       <c r="E222" t="s">
         <v>0</v>
       </c>
-      <c r="F222" s="3" t="str">
+      <c r="F222" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/221.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/221.jpg</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6527,7 +6526,7 @@
       </c>
       <c r="B223" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>259</v>
@@ -6538,9 +6537,9 @@
       <c r="E223" t="s">
         <v>0</v>
       </c>
-      <c r="F223" s="3" t="str">
+      <c r="F223" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/222.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/222.jpg</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6549,7 +6548,7 @@
       </c>
       <c r="B224" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>259</v>
@@ -6560,9 +6559,9 @@
       <c r="E224" t="s">
         <v>0</v>
       </c>
-      <c r="F224" s="3" t="str">
+      <c r="F224" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/223.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/223.jpg</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6571,7 +6570,7 @@
       </c>
       <c r="B225" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>259</v>
@@ -6582,9 +6581,9 @@
       <c r="E225" t="s">
         <v>0</v>
       </c>
-      <c r="F225" s="3" t="str">
+      <c r="F225" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/224.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/224.jpg</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6593,7 +6592,7 @@
       </c>
       <c r="B226" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>259</v>
@@ -6604,9 +6603,9 @@
       <c r="E226" t="s">
         <v>0</v>
       </c>
-      <c r="F226" s="3" t="str">
+      <c r="F226" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/225.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/225.jpg</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,7 +6614,7 @@
       </c>
       <c r="B227" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>259</v>
@@ -6626,9 +6625,9 @@
       <c r="E227" t="s">
         <v>0</v>
       </c>
-      <c r="F227" s="3" t="str">
+      <c r="F227" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/226.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/226.jpg</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6637,7 +6636,7 @@
       </c>
       <c r="B228" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>259</v>
@@ -6648,9 +6647,9 @@
       <c r="E228" t="s">
         <v>0</v>
       </c>
-      <c r="F228" s="3" t="str">
+      <c r="F228" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/227.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/227.jpg</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6659,7 +6658,7 @@
       </c>
       <c r="B229" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>259</v>
@@ -6670,9 +6669,9 @@
       <c r="E229" t="s">
         <v>0</v>
       </c>
-      <c r="F229" s="3" t="str">
+      <c r="F229" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/228.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/228.jpg</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,7 +6680,7 @@
       </c>
       <c r="B230" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>259</v>
@@ -6692,9 +6691,9 @@
       <c r="E230" t="s">
         <v>0</v>
       </c>
-      <c r="F230" s="3" t="str">
+      <c r="F230" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/229.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/229.jpg</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6703,7 +6702,7 @@
       </c>
       <c r="B231" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>259</v>
@@ -6714,9 +6713,9 @@
       <c r="E231" t="s">
         <v>0</v>
       </c>
-      <c r="F231" s="3" t="str">
+      <c r="F231" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/230.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/230.jpg</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,7 +6724,7 @@
       </c>
       <c r="B232" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>259</v>
@@ -6736,9 +6735,9 @@
       <c r="E232" t="s">
         <v>0</v>
       </c>
-      <c r="F232" s="3" t="str">
+      <c r="F232" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/231.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/231.jpg</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6747,7 +6746,7 @@
       </c>
       <c r="B233" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>259</v>
@@ -6758,9 +6757,9 @@
       <c r="E233" t="s">
         <v>0</v>
       </c>
-      <c r="F233" s="3" t="str">
+      <c r="F233" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/232.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/232.jpg</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6769,7 +6768,7 @@
       </c>
       <c r="B234" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>259</v>
@@ -6780,9 +6779,9 @@
       <c r="E234" t="s">
         <v>0</v>
       </c>
-      <c r="F234" s="3" t="str">
+      <c r="F234" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/233.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/233.jpg</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6791,7 +6790,7 @@
       </c>
       <c r="B235" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>259</v>
@@ -6802,9 +6801,9 @@
       <c r="E235" t="s">
         <v>0</v>
       </c>
-      <c r="F235" s="3" t="str">
+      <c r="F235" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/234.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/234.jpg</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6813,7 +6812,7 @@
       </c>
       <c r="B236" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>259</v>
@@ -6824,9 +6823,9 @@
       <c r="E236" t="s">
         <v>0</v>
       </c>
-      <c r="F236" s="3" t="str">
+      <c r="F236" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/235.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/235.jpg</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6835,7 +6834,7 @@
       </c>
       <c r="B237" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>259</v>
@@ -6846,9 +6845,9 @@
       <c r="E237" t="s">
         <v>0</v>
       </c>
-      <c r="F237" s="3" t="str">
+      <c r="F237" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/236.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/236.jpg</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,7 +6856,7 @@
       </c>
       <c r="B238" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>259</v>
@@ -6868,9 +6867,9 @@
       <c r="E238" t="s">
         <v>0</v>
       </c>
-      <c r="F238" s="3" t="str">
+      <c r="F238" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/237.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/237.jpg</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,7 +6878,7 @@
       </c>
       <c r="B239" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>259</v>
@@ -6890,9 +6889,9 @@
       <c r="E239" t="s">
         <v>0</v>
       </c>
-      <c r="F239" s="3" t="str">
+      <c r="F239" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/238.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/238.jpg</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6901,7 +6900,7 @@
       </c>
       <c r="B240" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>259</v>
@@ -6912,9 +6911,9 @@
       <c r="E240" t="s">
         <v>0</v>
       </c>
-      <c r="F240" s="3" t="str">
+      <c r="F240" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/239.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/239.jpg</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,7 +6922,7 @@
       </c>
       <c r="B241" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>259</v>
@@ -6934,9 +6933,9 @@
       <c r="E241" t="s">
         <v>0</v>
       </c>
-      <c r="F241" s="3" t="str">
+      <c r="F241" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/240.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/240.jpg</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,7 +6944,7 @@
       </c>
       <c r="B242" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>259</v>
@@ -6956,9 +6955,9 @@
       <c r="E242" t="s">
         <v>0</v>
       </c>
-      <c r="F242" s="3" t="str">
+      <c r="F242" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/241.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/241.jpg</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6967,7 +6966,7 @@
       </c>
       <c r="B243" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>259</v>
@@ -6978,9 +6977,9 @@
       <c r="E243" t="s">
         <v>0</v>
       </c>
-      <c r="F243" s="3" t="str">
+      <c r="F243" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/242.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/242.jpg</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6989,7 +6988,7 @@
       </c>
       <c r="B244" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>259</v>
@@ -7000,9 +6999,9 @@
       <c r="E244" t="s">
         <v>0</v>
       </c>
-      <c r="F244" s="3" t="str">
+      <c r="F244" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/243.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/243.jpg</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,7 +7010,7 @@
       </c>
       <c r="B245" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>259</v>
@@ -7022,9 +7021,9 @@
       <c r="E245" t="s">
         <v>0</v>
       </c>
-      <c r="F245" s="3" t="str">
+      <c r="F245" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/244.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/244.jpg</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7033,7 +7032,7 @@
       </c>
       <c r="B246" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>259</v>
@@ -7044,9 +7043,9 @@
       <c r="E246" t="s">
         <v>0</v>
       </c>
-      <c r="F246" s="3" t="str">
+      <c r="F246" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/245.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/245.jpg</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -7055,7 +7054,7 @@
       </c>
       <c r="B247" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>259</v>
@@ -7066,9 +7065,9 @@
       <c r="E247" t="s">
         <v>0</v>
       </c>
-      <c r="F247" s="3" t="str">
+      <c r="F247" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/246.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/246.jpg</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -7077,7 +7076,7 @@
       </c>
       <c r="B248" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>259</v>
@@ -7088,9 +7087,9 @@
       <c r="E248" t="s">
         <v>0</v>
       </c>
-      <c r="F248" s="3" t="str">
+      <c r="F248" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/247.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/247.jpg</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,7 +7098,7 @@
       </c>
       <c r="B249" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>259</v>
@@ -7110,9 +7109,9 @@
       <c r="E249" t="s">
         <v>0</v>
       </c>
-      <c r="F249" s="3" t="str">
+      <c r="F249" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/248.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/248.jpg</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,7 +7120,7 @@
       </c>
       <c r="B250" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>259</v>
@@ -7132,9 +7131,9 @@
       <c r="E250" t="s">
         <v>0</v>
       </c>
-      <c r="F250" s="3" t="str">
+      <c r="F250" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/249.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/249.jpg</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7143,7 +7142,7 @@
       </c>
       <c r="B251" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>259</v>
@@ -7154,9 +7153,9 @@
       <c r="E251" t="s">
         <v>0</v>
       </c>
-      <c r="F251" s="3" t="str">
+      <c r="F251" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/250.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/250.jpg</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,7 +7164,7 @@
       </c>
       <c r="B252" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>259</v>
@@ -7176,9 +7175,9 @@
       <c r="E252" t="s">
         <v>0</v>
       </c>
-      <c r="F252" s="3" t="str">
+      <c r="F252" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/251.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/251.jpg</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7187,7 +7186,7 @@
       </c>
       <c r="B253" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>259</v>
@@ -7198,9 +7197,9 @@
       <c r="E253" t="s">
         <v>0</v>
       </c>
-      <c r="F253" s="3" t="str">
+      <c r="F253" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/252.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/252.jpg</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,7 +7208,7 @@
       </c>
       <c r="B254" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>259</v>
@@ -7220,9 +7219,9 @@
       <c r="E254" t="s">
         <v>0</v>
       </c>
-      <c r="F254" s="3" t="str">
+      <c r="F254" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/253.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/253.jpg</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7231,7 +7230,7 @@
       </c>
       <c r="B255" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>259</v>
@@ -7242,9 +7241,9 @@
       <c r="E255" t="s">
         <v>0</v>
       </c>
-      <c r="F255" s="3" t="str">
+      <c r="F255" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/254.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/254.jpg</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7253,7 +7252,7 @@
       </c>
       <c r="B256" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>259</v>
@@ -7264,9 +7263,9 @@
       <c r="E256" t="s">
         <v>0</v>
       </c>
-      <c r="F256" s="3" t="str">
+      <c r="F256" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/255.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/255.jpg</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7275,7 +7274,7 @@
       </c>
       <c r="B257" t="str">
         <f t="shared" si="6"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>259</v>
@@ -7286,9 +7285,9 @@
       <c r="E257" t="s">
         <v>0</v>
       </c>
-      <c r="F257" s="3" t="str">
+      <c r="F257" t="str">
         <f t="shared" si="7"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/256.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/256.jpg</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7297,7 +7296,7 @@
       </c>
       <c r="B258" t="str">
         <f t="shared" ref="B258:B321" si="8">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>259</v>
@@ -7308,9 +7307,9 @@
       <c r="E258" t="s">
         <v>0</v>
       </c>
-      <c r="F258" s="3" t="str">
+      <c r="F258" t="str">
         <f t="shared" ref="F258" si="9">_xlfn.CONCAT(A258,B258,C258,D258,E258)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/257.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/257.jpg</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,7 +7318,7 @@
       </c>
       <c r="B259" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>259</v>
@@ -7330,9 +7329,9 @@
       <c r="E259" t="s">
         <v>0</v>
       </c>
-      <c r="F259" s="3" t="str">
+      <c r="F259" t="str">
         <f t="shared" ref="F259:F281" si="10">_xlfn.CONCAT(A259,B259,C259,D259,E259)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/258.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/258.jpg</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7341,7 +7340,7 @@
       </c>
       <c r="B260" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>259</v>
@@ -7352,9 +7351,9 @@
       <c r="E260" t="s">
         <v>0</v>
       </c>
-      <c r="F260" s="3" t="str">
+      <c r="F260" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/259.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/259.jpg</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7363,7 +7362,7 @@
       </c>
       <c r="B261" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>259</v>
@@ -7374,9 +7373,9 @@
       <c r="E261" t="s">
         <v>0</v>
       </c>
-      <c r="F261" s="3" t="str">
+      <c r="F261" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/260.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/260.jpg</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7385,7 +7384,7 @@
       </c>
       <c r="B262" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>259</v>
@@ -7396,9 +7395,9 @@
       <c r="E262" t="s">
         <v>0</v>
       </c>
-      <c r="F262" s="3" t="str">
+      <c r="F262" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/261.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/261.jpg</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7407,7 +7406,7 @@
       </c>
       <c r="B263" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>259</v>
@@ -7418,9 +7417,9 @@
       <c r="E263" t="s">
         <v>0</v>
       </c>
-      <c r="F263" s="3" t="str">
+      <c r="F263" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/262.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/262.jpg</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7429,7 +7428,7 @@
       </c>
       <c r="B264" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>259</v>
@@ -7440,9 +7439,9 @@
       <c r="E264" t="s">
         <v>0</v>
       </c>
-      <c r="F264" s="3" t="str">
+      <c r="F264" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/263.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/263.jpg</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7451,7 +7450,7 @@
       </c>
       <c r="B265" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>259</v>
@@ -7462,9 +7461,9 @@
       <c r="E265" t="s">
         <v>0</v>
       </c>
-      <c r="F265" s="3" t="str">
+      <c r="F265" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/264.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/264.jpg</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7473,7 +7472,7 @@
       </c>
       <c r="B266" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>259</v>
@@ -7484,9 +7483,9 @@
       <c r="E266" t="s">
         <v>0</v>
       </c>
-      <c r="F266" s="3" t="str">
+      <c r="F266" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/265.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/265.jpg</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7495,7 +7494,7 @@
       </c>
       <c r="B267" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>259</v>
@@ -7506,9 +7505,9 @@
       <c r="E267" t="s">
         <v>0</v>
       </c>
-      <c r="F267" s="3" t="str">
+      <c r="F267" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/266.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/266.jpg</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7517,7 +7516,7 @@
       </c>
       <c r="B268" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>259</v>
@@ -7528,9 +7527,9 @@
       <c r="E268" t="s">
         <v>0</v>
       </c>
-      <c r="F268" s="3" t="str">
+      <c r="F268" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/267.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/267.jpg</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,7 +7538,7 @@
       </c>
       <c r="B269" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>259</v>
@@ -7550,9 +7549,9 @@
       <c r="E269" t="s">
         <v>0</v>
       </c>
-      <c r="F269" s="3" t="str">
+      <c r="F269" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/268.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/268.jpg</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7561,7 +7560,7 @@
       </c>
       <c r="B270" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>259</v>
@@ -7572,9 +7571,9 @@
       <c r="E270" t="s">
         <v>0</v>
       </c>
-      <c r="F270" s="3" t="str">
+      <c r="F270" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/269.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/269.jpg</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7583,7 +7582,7 @@
       </c>
       <c r="B271" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>259</v>
@@ -7594,9 +7593,9 @@
       <c r="E271" t="s">
         <v>0</v>
       </c>
-      <c r="F271" s="3" t="str">
+      <c r="F271" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/270.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/270.jpg</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7605,7 +7604,7 @@
       </c>
       <c r="B272" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>259</v>
@@ -7616,9 +7615,9 @@
       <c r="E272" t="s">
         <v>0</v>
       </c>
-      <c r="F272" s="3" t="str">
+      <c r="F272" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/271.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/271.jpg</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7627,7 +7626,7 @@
       </c>
       <c r="B273" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>259</v>
@@ -7638,9 +7637,9 @@
       <c r="E273" t="s">
         <v>0</v>
       </c>
-      <c r="F273" s="3" t="str">
+      <c r="F273" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/272.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/272.jpg</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7649,7 +7648,7 @@
       </c>
       <c r="B274" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>259</v>
@@ -7660,9 +7659,9 @@
       <c r="E274" t="s">
         <v>0</v>
       </c>
-      <c r="F274" s="3" t="str">
+      <c r="F274" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/273.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/273.jpg</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7671,7 +7670,7 @@
       </c>
       <c r="B275" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>259</v>
@@ -7682,9 +7681,9 @@
       <c r="E275" t="s">
         <v>0</v>
       </c>
-      <c r="F275" s="3" t="str">
+      <c r="F275" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/274.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/274.jpg</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7693,7 +7692,7 @@
       </c>
       <c r="B276" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>259</v>
@@ -7704,9 +7703,9 @@
       <c r="E276" t="s">
         <v>0</v>
       </c>
-      <c r="F276" s="3" t="str">
+      <c r="F276" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/275.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/275.jpg</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7715,7 +7714,7 @@
       </c>
       <c r="B277" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>259</v>
@@ -7726,9 +7725,9 @@
       <c r="E277" t="s">
         <v>0</v>
       </c>
-      <c r="F277" s="3" t="str">
+      <c r="F277" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/276.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/276.jpg</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7737,7 +7736,7 @@
       </c>
       <c r="B278" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>259</v>
@@ -7748,9 +7747,9 @@
       <c r="E278" t="s">
         <v>0</v>
       </c>
-      <c r="F278" s="3" t="str">
+      <c r="F278" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/277.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/277.jpg</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,7 +7758,7 @@
       </c>
       <c r="B279" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>259</v>
@@ -7770,9 +7769,9 @@
       <c r="E279" t="s">
         <v>0</v>
       </c>
-      <c r="F279" s="3" t="str">
+      <c r="F279" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/278.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/278.jpg</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7781,7 +7780,7 @@
       </c>
       <c r="B280" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>259</v>
@@ -7792,9 +7791,9 @@
       <c r="E280" t="s">
         <v>0</v>
       </c>
-      <c r="F280" s="3" t="str">
+      <c r="F280" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/279.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/279.jpg</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7803,7 +7802,7 @@
       </c>
       <c r="B281" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>259</v>
@@ -7814,9 +7813,9 @@
       <c r="E281" t="s">
         <v>0</v>
       </c>
-      <c r="F281" s="3" t="str">
+      <c r="F281" t="str">
         <f t="shared" si="10"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/280.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/280.jpg</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7825,7 +7824,7 @@
       </c>
       <c r="B282" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>259</v>
@@ -7836,9 +7835,9 @@
       <c r="E282" t="s">
         <v>0</v>
       </c>
-      <c r="F282" s="3" t="str">
+      <c r="F282" t="str">
         <f t="shared" ref="F282:F300" si="11">_xlfn.CONCAT(A282,B282,C282,D282,E282)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/281.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/281.jpg</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7847,7 +7846,7 @@
       </c>
       <c r="B283" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>259</v>
@@ -7858,9 +7857,9 @@
       <c r="E283" t="s">
         <v>0</v>
       </c>
-      <c r="F283" s="3" t="str">
+      <c r="F283" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/282.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/282.jpg</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7869,7 +7868,7 @@
       </c>
       <c r="B284" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>259</v>
@@ -7880,9 +7879,9 @@
       <c r="E284" t="s">
         <v>0</v>
       </c>
-      <c r="F284" s="3" t="str">
+      <c r="F284" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/283.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/283.jpg</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7891,7 +7890,7 @@
       </c>
       <c r="B285" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>259</v>
@@ -7902,9 +7901,9 @@
       <c r="E285" t="s">
         <v>0</v>
       </c>
-      <c r="F285" s="3" t="str">
+      <c r="F285" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/284.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/284.jpg</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7913,7 +7912,7 @@
       </c>
       <c r="B286" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>259</v>
@@ -7924,9 +7923,9 @@
       <c r="E286" t="s">
         <v>0</v>
       </c>
-      <c r="F286" s="3" t="str">
+      <c r="F286" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/285.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/285.jpg</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7935,7 +7934,7 @@
       </c>
       <c r="B287" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>259</v>
@@ -7946,9 +7945,9 @@
       <c r="E287" t="s">
         <v>0</v>
       </c>
-      <c r="F287" s="3" t="str">
+      <c r="F287" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/286.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/286.jpg</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7957,7 +7956,7 @@
       </c>
       <c r="B288" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>259</v>
@@ -7968,9 +7967,9 @@
       <c r="E288" t="s">
         <v>0</v>
       </c>
-      <c r="F288" s="3" t="str">
+      <c r="F288" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/287.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/287.jpg</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7979,7 +7978,7 @@
       </c>
       <c r="B289" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>259</v>
@@ -7990,9 +7989,9 @@
       <c r="E289" t="s">
         <v>0</v>
       </c>
-      <c r="F289" s="3" t="str">
+      <c r="F289" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/288.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/288.jpg</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -8001,7 +8000,7 @@
       </c>
       <c r="B290" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>259</v>
@@ -8012,9 +8011,9 @@
       <c r="E290" t="s">
         <v>0</v>
       </c>
-      <c r="F290" s="3" t="str">
+      <c r="F290" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/289.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/289.jpg</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -8023,7 +8022,7 @@
       </c>
       <c r="B291" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>259</v>
@@ -8034,9 +8033,9 @@
       <c r="E291" t="s">
         <v>0</v>
       </c>
-      <c r="F291" s="3" t="str">
+      <c r="F291" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/290.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/290.jpg</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8045,7 +8044,7 @@
       </c>
       <c r="B292" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>259</v>
@@ -8056,9 +8055,9 @@
       <c r="E292" t="s">
         <v>0</v>
       </c>
-      <c r="F292" s="3" t="str">
+      <c r="F292" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/291.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/291.jpg</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8067,7 +8066,7 @@
       </c>
       <c r="B293" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>259</v>
@@ -8078,9 +8077,9 @@
       <c r="E293" t="s">
         <v>0</v>
       </c>
-      <c r="F293" s="3" t="str">
+      <c r="F293" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/292.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/292.jpg</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8089,7 +8088,7 @@
       </c>
       <c r="B294" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>259</v>
@@ -8100,9 +8099,9 @@
       <c r="E294" t="s">
         <v>0</v>
       </c>
-      <c r="F294" s="3" t="str">
+      <c r="F294" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/293.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/293.jpg</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8111,7 +8110,7 @@
       </c>
       <c r="B295" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>259</v>
@@ -8122,9 +8121,9 @@
       <c r="E295" t="s">
         <v>0</v>
       </c>
-      <c r="F295" s="3" t="str">
+      <c r="F295" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/294.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/294.jpg</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -8133,7 +8132,7 @@
       </c>
       <c r="B296" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>259</v>
@@ -8144,9 +8143,9 @@
       <c r="E296" t="s">
         <v>0</v>
       </c>
-      <c r="F296" s="3" t="str">
+      <c r="F296" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/295.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/295.jpg</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,7 +8154,7 @@
       </c>
       <c r="B297" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>259</v>
@@ -8166,9 +8165,9 @@
       <c r="E297" t="s">
         <v>0</v>
       </c>
-      <c r="F297" s="3" t="str">
+      <c r="F297" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/296.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/296.jpg</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,7 +8176,7 @@
       </c>
       <c r="B298" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>259</v>
@@ -8188,9 +8187,9 @@
       <c r="E298" t="s">
         <v>0</v>
       </c>
-      <c r="F298" s="3" t="str">
+      <c r="F298" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/297.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/297.jpg</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,7 +8198,7 @@
       </c>
       <c r="B299" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>259</v>
@@ -8210,9 +8209,9 @@
       <c r="E299" t="s">
         <v>0</v>
       </c>
-      <c r="F299" s="3" t="str">
+      <c r="F299" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/298.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/298.jpg</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8221,7 +8220,7 @@
       </c>
       <c r="B300" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>259</v>
@@ -8232,9 +8231,9 @@
       <c r="E300" t="s">
         <v>0</v>
       </c>
-      <c r="F300" s="3" t="str">
+      <c r="F300" t="str">
         <f t="shared" si="11"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/299.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/299.jpg</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8243,7 +8242,7 @@
       </c>
       <c r="B301" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>259</v>
@@ -8254,9 +8253,9 @@
       <c r="E301" t="s">
         <v>0</v>
       </c>
-      <c r="F301" s="3" t="str">
+      <c r="F301" t="str">
         <f t="shared" ref="F301:F364" si="12">_xlfn.CONCAT(A301,B301,C301,D301,E301)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/300.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/300.jpg</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,7 +8264,7 @@
       </c>
       <c r="B302" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>259</v>
@@ -8276,9 +8275,9 @@
       <c r="E302" t="s">
         <v>0</v>
       </c>
-      <c r="F302" s="3" t="str">
+      <c r="F302" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/301.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/301.jpg</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -8287,7 +8286,7 @@
       </c>
       <c r="B303" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>259</v>
@@ -8298,9 +8297,9 @@
       <c r="E303" t="s">
         <v>0</v>
       </c>
-      <c r="F303" s="3" t="str">
+      <c r="F303" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/302.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/302.jpg</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -8309,7 +8308,7 @@
       </c>
       <c r="B304" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>259</v>
@@ -8320,9 +8319,9 @@
       <c r="E304" t="s">
         <v>0</v>
       </c>
-      <c r="F304" s="3" t="str">
+      <c r="F304" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/303.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/303.jpg</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,7 +8330,7 @@
       </c>
       <c r="B305" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>259</v>
@@ -8342,9 +8341,9 @@
       <c r="E305" t="s">
         <v>0</v>
       </c>
-      <c r="F305" s="3" t="str">
+      <c r="F305" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/304.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/304.jpg</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -8353,7 +8352,7 @@
       </c>
       <c r="B306" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>259</v>
@@ -8364,9 +8363,9 @@
       <c r="E306" t="s">
         <v>0</v>
       </c>
-      <c r="F306" s="3" t="str">
+      <c r="F306" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/305.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/305.jpg</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -8375,7 +8374,7 @@
       </c>
       <c r="B307" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>259</v>
@@ -8386,9 +8385,9 @@
       <c r="E307" t="s">
         <v>0</v>
       </c>
-      <c r="F307" s="3" t="str">
+      <c r="F307" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/306.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/306.jpg</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,7 +8396,7 @@
       </c>
       <c r="B308" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>259</v>
@@ -8408,9 +8407,9 @@
       <c r="E308" t="s">
         <v>0</v>
       </c>
-      <c r="F308" s="3" t="str">
+      <c r="F308" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/307.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/307.jpg</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,7 +8418,7 @@
       </c>
       <c r="B309" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>259</v>
@@ -8430,9 +8429,9 @@
       <c r="E309" t="s">
         <v>0</v>
       </c>
-      <c r="F309" s="3" t="str">
+      <c r="F309" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/308.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/308.jpg</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -8441,7 +8440,7 @@
       </c>
       <c r="B310" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>259</v>
@@ -8452,9 +8451,9 @@
       <c r="E310" t="s">
         <v>0</v>
       </c>
-      <c r="F310" s="3" t="str">
+      <c r="F310" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/309.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/309.jpg</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,7 +8462,7 @@
       </c>
       <c r="B311" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>259</v>
@@ -8474,9 +8473,9 @@
       <c r="E311" t="s">
         <v>0</v>
       </c>
-      <c r="F311" s="3" t="str">
+      <c r="F311" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/310.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/310.jpg</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -8485,7 +8484,7 @@
       </c>
       <c r="B312" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>259</v>
@@ -8496,9 +8495,9 @@
       <c r="E312" t="s">
         <v>0</v>
       </c>
-      <c r="F312" s="3" t="str">
+      <c r="F312" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/311.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/311.jpg</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -8507,7 +8506,7 @@
       </c>
       <c r="B313" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>259</v>
@@ -8518,9 +8517,9 @@
       <c r="E313" t="s">
         <v>0</v>
       </c>
-      <c r="F313" s="3" t="str">
+      <c r="F313" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/312.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/312.jpg</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8529,7 +8528,7 @@
       </c>
       <c r="B314" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>259</v>
@@ -8540,9 +8539,9 @@
       <c r="E314" t="s">
         <v>0</v>
       </c>
-      <c r="F314" s="3" t="str">
+      <c r="F314" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/313.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/313.jpg</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -8551,7 +8550,7 @@
       </c>
       <c r="B315" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>259</v>
@@ -8562,9 +8561,9 @@
       <c r="E315" t="s">
         <v>0</v>
       </c>
-      <c r="F315" s="3" t="str">
+      <c r="F315" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/314.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/314.jpg</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8573,7 +8572,7 @@
       </c>
       <c r="B316" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>259</v>
@@ -8584,9 +8583,9 @@
       <c r="E316" t="s">
         <v>0</v>
       </c>
-      <c r="F316" s="3" t="str">
+      <c r="F316" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/315.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/315.jpg</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,7 +8594,7 @@
       </c>
       <c r="B317" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>259</v>
@@ -8606,9 +8605,9 @@
       <c r="E317" t="s">
         <v>0</v>
       </c>
-      <c r="F317" s="3" t="str">
+      <c r="F317" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/316.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/316.jpg</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -8617,7 +8616,7 @@
       </c>
       <c r="B318" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>259</v>
@@ -8628,9 +8627,9 @@
       <c r="E318" t="s">
         <v>0</v>
       </c>
-      <c r="F318" s="3" t="str">
+      <c r="F318" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/317.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/317.jpg</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,7 +8638,7 @@
       </c>
       <c r="B319" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>259</v>
@@ -8650,9 +8649,9 @@
       <c r="E319" t="s">
         <v>0</v>
       </c>
-      <c r="F319" s="3" t="str">
+      <c r="F319" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/318.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/318.jpg</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8661,7 +8660,7 @@
       </c>
       <c r="B320" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>259</v>
@@ -8672,9 +8671,9 @@
       <c r="E320" t="s">
         <v>0</v>
       </c>
-      <c r="F320" s="3" t="str">
+      <c r="F320" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/319.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/319.jpg</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8683,7 +8682,7 @@
       </c>
       <c r="B321" t="str">
         <f t="shared" si="8"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>259</v>
@@ -8694,9 +8693,9 @@
       <c r="E321" t="s">
         <v>0</v>
       </c>
-      <c r="F321" s="3" t="str">
+      <c r="F321" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/320.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/320.jpg</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,7 +8704,7 @@
       </c>
       <c r="B322" t="str">
         <f t="shared" ref="B322:B385" si="13">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>259</v>
@@ -8716,9 +8715,9 @@
       <c r="E322" t="s">
         <v>0</v>
       </c>
-      <c r="F322" s="3" t="str">
+      <c r="F322" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/321.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/321.jpg</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -8727,7 +8726,7 @@
       </c>
       <c r="B323" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>259</v>
@@ -8738,9 +8737,9 @@
       <c r="E323" t="s">
         <v>0</v>
       </c>
-      <c r="F323" s="3" t="str">
+      <c r="F323" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/322.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/322.jpg</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -8749,7 +8748,7 @@
       </c>
       <c r="B324" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>259</v>
@@ -8760,9 +8759,9 @@
       <c r="E324" t="s">
         <v>0</v>
       </c>
-      <c r="F324" s="3" t="str">
+      <c r="F324" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/323.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/323.jpg</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,7 +8770,7 @@
       </c>
       <c r="B325" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>259</v>
@@ -8782,9 +8781,9 @@
       <c r="E325" t="s">
         <v>0</v>
       </c>
-      <c r="F325" s="3" t="str">
+      <c r="F325" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/324.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/324.jpg</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -8793,7 +8792,7 @@
       </c>
       <c r="B326" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>259</v>
@@ -8804,9 +8803,9 @@
       <c r="E326" t="s">
         <v>0</v>
       </c>
-      <c r="F326" s="3" t="str">
+      <c r="F326" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/325.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/325.jpg</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -8815,7 +8814,7 @@
       </c>
       <c r="B327" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>259</v>
@@ -8826,9 +8825,9 @@
       <c r="E327" t="s">
         <v>0</v>
       </c>
-      <c r="F327" s="3" t="str">
+      <c r="F327" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/326.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/326.jpg</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -8837,7 +8836,7 @@
       </c>
       <c r="B328" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>259</v>
@@ -8848,9 +8847,9 @@
       <c r="E328" t="s">
         <v>0</v>
       </c>
-      <c r="F328" s="3" t="str">
+      <c r="F328" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/327.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/327.jpg</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,7 +8858,7 @@
       </c>
       <c r="B329" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>259</v>
@@ -8870,9 +8869,9 @@
       <c r="E329" t="s">
         <v>0</v>
       </c>
-      <c r="F329" s="3" t="str">
+      <c r="F329" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/328.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/328.jpg</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -8881,7 +8880,7 @@
       </c>
       <c r="B330" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>259</v>
@@ -8892,9 +8891,9 @@
       <c r="E330" t="s">
         <v>0</v>
       </c>
-      <c r="F330" s="3" t="str">
+      <c r="F330" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/329.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/329.jpg</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -8903,7 +8902,7 @@
       </c>
       <c r="B331" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>259</v>
@@ -8914,9 +8913,9 @@
       <c r="E331" t="s">
         <v>0</v>
       </c>
-      <c r="F331" s="3" t="str">
+      <c r="F331" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/330.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/330.jpg</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,7 +8924,7 @@
       </c>
       <c r="B332" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>259</v>
@@ -8936,9 +8935,9 @@
       <c r="E332" t="s">
         <v>0</v>
       </c>
-      <c r="F332" s="3" t="str">
+      <c r="F332" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/331.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/331.jpg</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8947,7 +8946,7 @@
       </c>
       <c r="B333" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>259</v>
@@ -8958,9 +8957,9 @@
       <c r="E333" t="s">
         <v>0</v>
       </c>
-      <c r="F333" s="3" t="str">
+      <c r="F333" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/332.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/332.jpg</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -8969,7 +8968,7 @@
       </c>
       <c r="B334" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>259</v>
@@ -8980,9 +8979,9 @@
       <c r="E334" t="s">
         <v>0</v>
       </c>
-      <c r="F334" s="3" t="str">
+      <c r="F334" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/333.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/333.jpg</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -8991,7 +8990,7 @@
       </c>
       <c r="B335" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>259</v>
@@ -9002,9 +9001,9 @@
       <c r="E335" t="s">
         <v>0</v>
       </c>
-      <c r="F335" s="3" t="str">
+      <c r="F335" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/334.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/334.jpg</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -9013,7 +9012,7 @@
       </c>
       <c r="B336" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>259</v>
@@ -9024,9 +9023,9 @@
       <c r="E336" t="s">
         <v>0</v>
       </c>
-      <c r="F336" s="3" t="str">
+      <c r="F336" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/335.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/335.jpg</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -9035,7 +9034,7 @@
       </c>
       <c r="B337" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>259</v>
@@ -9046,9 +9045,9 @@
       <c r="E337" t="s">
         <v>0</v>
       </c>
-      <c r="F337" s="3" t="str">
+      <c r="F337" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/336.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/336.jpg</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,7 +9056,7 @@
       </c>
       <c r="B338" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>259</v>
@@ -9068,9 +9067,9 @@
       <c r="E338" t="s">
         <v>0</v>
       </c>
-      <c r="F338" s="3" t="str">
+      <c r="F338" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/337.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/337.jpg</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -9079,7 +9078,7 @@
       </c>
       <c r="B339" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>259</v>
@@ -9090,9 +9089,9 @@
       <c r="E339" t="s">
         <v>0</v>
       </c>
-      <c r="F339" s="3" t="str">
+      <c r="F339" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/338.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/338.jpg</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -9101,7 +9100,7 @@
       </c>
       <c r="B340" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>259</v>
@@ -9112,9 +9111,9 @@
       <c r="E340" t="s">
         <v>0</v>
       </c>
-      <c r="F340" s="3" t="str">
+      <c r="F340" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/339.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/339.jpg</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -9123,7 +9122,7 @@
       </c>
       <c r="B341" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>259</v>
@@ -9134,9 +9133,9 @@
       <c r="E341" t="s">
         <v>0</v>
       </c>
-      <c r="F341" s="3" t="str">
+      <c r="F341" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/340.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/340.jpg</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,7 +9144,7 @@
       </c>
       <c r="B342" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>259</v>
@@ -9156,9 +9155,9 @@
       <c r="E342" t="s">
         <v>0</v>
       </c>
-      <c r="F342" s="3" t="str">
+      <c r="F342" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/341.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/341.jpg</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -9167,7 +9166,7 @@
       </c>
       <c r="B343" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>259</v>
@@ -9178,9 +9177,9 @@
       <c r="E343" t="s">
         <v>0</v>
       </c>
-      <c r="F343" s="3" t="str">
+      <c r="F343" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/342.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/342.jpg</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -9189,7 +9188,7 @@
       </c>
       <c r="B344" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>259</v>
@@ -9200,9 +9199,9 @@
       <c r="E344" t="s">
         <v>0</v>
       </c>
-      <c r="F344" s="3" t="str">
+      <c r="F344" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/343.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/343.jpg</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -9211,7 +9210,7 @@
       </c>
       <c r="B345" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>259</v>
@@ -9222,9 +9221,9 @@
       <c r="E345" t="s">
         <v>0</v>
       </c>
-      <c r="F345" s="3" t="str">
+      <c r="F345" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/344.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/344.jpg</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -9233,7 +9232,7 @@
       </c>
       <c r="B346" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>259</v>
@@ -9244,9 +9243,9 @@
       <c r="E346" t="s">
         <v>0</v>
       </c>
-      <c r="F346" s="3" t="str">
+      <c r="F346" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/345.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/345.jpg</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -9255,7 +9254,7 @@
       </c>
       <c r="B347" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>259</v>
@@ -9266,9 +9265,9 @@
       <c r="E347" t="s">
         <v>0</v>
       </c>
-      <c r="F347" s="3" t="str">
+      <c r="F347" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/346.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/346.jpg</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -9277,7 +9276,7 @@
       </c>
       <c r="B348" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>259</v>
@@ -9288,9 +9287,9 @@
       <c r="E348" t="s">
         <v>0</v>
       </c>
-      <c r="F348" s="3" t="str">
+      <c r="F348" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/347.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/347.jpg</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -9299,7 +9298,7 @@
       </c>
       <c r="B349" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>259</v>
@@ -9310,9 +9309,9 @@
       <c r="E349" t="s">
         <v>0</v>
       </c>
-      <c r="F349" s="3" t="str">
+      <c r="F349" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/348.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/348.jpg</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -9321,7 +9320,7 @@
       </c>
       <c r="B350" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>259</v>
@@ -9332,9 +9331,9 @@
       <c r="E350" t="s">
         <v>0</v>
       </c>
-      <c r="F350" s="3" t="str">
+      <c r="F350" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/349.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/349.jpg</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -9343,7 +9342,7 @@
       </c>
       <c r="B351" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>259</v>
@@ -9354,9 +9353,9 @@
       <c r="E351" t="s">
         <v>0</v>
       </c>
-      <c r="F351" s="3" t="str">
+      <c r="F351" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/350.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/350.jpg</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -9365,7 +9364,7 @@
       </c>
       <c r="B352" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>259</v>
@@ -9376,9 +9375,9 @@
       <c r="E352" t="s">
         <v>0</v>
       </c>
-      <c r="F352" s="3" t="str">
+      <c r="F352" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/351.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/351.jpg</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -9387,7 +9386,7 @@
       </c>
       <c r="B353" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>259</v>
@@ -9398,9 +9397,9 @@
       <c r="E353" t="s">
         <v>0</v>
       </c>
-      <c r="F353" s="3" t="str">
+      <c r="F353" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/352.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/352.jpg</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -9409,7 +9408,7 @@
       </c>
       <c r="B354" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>259</v>
@@ -9420,9 +9419,9 @@
       <c r="E354" t="s">
         <v>0</v>
       </c>
-      <c r="F354" s="3" t="str">
+      <c r="F354" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/353.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/353.jpg</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -9431,7 +9430,7 @@
       </c>
       <c r="B355" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>259</v>
@@ -9442,9 +9441,9 @@
       <c r="E355" t="s">
         <v>0</v>
       </c>
-      <c r="F355" s="3" t="str">
+      <c r="F355" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/354.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/354.jpg</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -9453,7 +9452,7 @@
       </c>
       <c r="B356" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>259</v>
@@ -9464,9 +9463,9 @@
       <c r="E356" t="s">
         <v>0</v>
       </c>
-      <c r="F356" s="3" t="str">
+      <c r="F356" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/355.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/355.jpg</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -9475,7 +9474,7 @@
       </c>
       <c r="B357" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>259</v>
@@ -9486,9 +9485,9 @@
       <c r="E357" t="s">
         <v>0</v>
       </c>
-      <c r="F357" s="3" t="str">
+      <c r="F357" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/356.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/356.jpg</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -9497,7 +9496,7 @@
       </c>
       <c r="B358" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>259</v>
@@ -9508,9 +9507,9 @@
       <c r="E358" t="s">
         <v>0</v>
       </c>
-      <c r="F358" s="3" t="str">
+      <c r="F358" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/357.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/357.jpg</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -9519,7 +9518,7 @@
       </c>
       <c r="B359" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>259</v>
@@ -9530,9 +9529,9 @@
       <c r="E359" t="s">
         <v>0</v>
       </c>
-      <c r="F359" s="3" t="str">
+      <c r="F359" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/358.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/358.jpg</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -9541,7 +9540,7 @@
       </c>
       <c r="B360" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>259</v>
@@ -9552,9 +9551,9 @@
       <c r="E360" t="s">
         <v>0</v>
       </c>
-      <c r="F360" s="3" t="str">
+      <c r="F360" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/359.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/359.jpg</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -9563,7 +9562,7 @@
       </c>
       <c r="B361" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>259</v>
@@ -9574,9 +9573,9 @@
       <c r="E361" t="s">
         <v>0</v>
       </c>
-      <c r="F361" s="3" t="str">
+      <c r="F361" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/360.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/360.jpg</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -9585,7 +9584,7 @@
       </c>
       <c r="B362" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>259</v>
@@ -9596,9 +9595,9 @@
       <c r="E362" t="s">
         <v>0</v>
       </c>
-      <c r="F362" s="3" t="str">
+      <c r="F362" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/361.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/361.jpg</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -9607,7 +9606,7 @@
       </c>
       <c r="B363" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>259</v>
@@ -9618,9 +9617,9 @@
       <c r="E363" t="s">
         <v>0</v>
       </c>
-      <c r="F363" s="3" t="str">
+      <c r="F363" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/362.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/362.jpg</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -9629,7 +9628,7 @@
       </c>
       <c r="B364" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>259</v>
@@ -9640,9 +9639,9 @@
       <c r="E364" t="s">
         <v>0</v>
       </c>
-      <c r="F364" s="3" t="str">
+      <c r="F364" t="str">
         <f t="shared" si="12"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/363.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/363.jpg</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -9651,7 +9650,7 @@
       </c>
       <c r="B365" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>259</v>
@@ -9662,9 +9661,9 @@
       <c r="E365" t="s">
         <v>0</v>
       </c>
-      <c r="F365" s="3" t="str">
+      <c r="F365" t="str">
         <f t="shared" ref="F365:F400" si="14">_xlfn.CONCAT(A365,B365,C365,D365,E365)</f>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/364.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/364.jpg</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -9673,7 +9672,7 @@
       </c>
       <c r="B366" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>259</v>
@@ -9684,9 +9683,9 @@
       <c r="E366" t="s">
         <v>0</v>
       </c>
-      <c r="F366" s="3" t="str">
+      <c r="F366" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/365.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/365.jpg</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -9695,7 +9694,7 @@
       </c>
       <c r="B367" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>259</v>
@@ -9706,9 +9705,9 @@
       <c r="E367" t="s">
         <v>0</v>
       </c>
-      <c r="F367" s="3" t="str">
+      <c r="F367" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/366.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/366.jpg</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -9717,7 +9716,7 @@
       </c>
       <c r="B368" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>259</v>
@@ -9728,9 +9727,9 @@
       <c r="E368" t="s">
         <v>0</v>
       </c>
-      <c r="F368" s="3" t="str">
+      <c r="F368" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/367.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/367.jpg</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -9739,7 +9738,7 @@
       </c>
       <c r="B369" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>259</v>
@@ -9750,9 +9749,9 @@
       <c r="E369" t="s">
         <v>0</v>
       </c>
-      <c r="F369" s="3" t="str">
+      <c r="F369" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/368.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/368.jpg</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -9761,7 +9760,7 @@
       </c>
       <c r="B370" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>259</v>
@@ -9772,9 +9771,9 @@
       <c r="E370" t="s">
         <v>0</v>
       </c>
-      <c r="F370" s="3" t="str">
+      <c r="F370" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/369.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/369.jpg</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -9783,7 +9782,7 @@
       </c>
       <c r="B371" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>259</v>
@@ -9794,9 +9793,9 @@
       <c r="E371" t="s">
         <v>0</v>
       </c>
-      <c r="F371" s="3" t="str">
+      <c r="F371" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/370.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/370.jpg</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -9805,7 +9804,7 @@
       </c>
       <c r="B372" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>259</v>
@@ -9816,9 +9815,9 @@
       <c r="E372" t="s">
         <v>0</v>
       </c>
-      <c r="F372" s="3" t="str">
+      <c r="F372" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/371.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/371.jpg</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -9827,7 +9826,7 @@
       </c>
       <c r="B373" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>259</v>
@@ -9838,9 +9837,9 @@
       <c r="E373" t="s">
         <v>0</v>
       </c>
-      <c r="F373" s="3" t="str">
+      <c r="F373" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/372.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/372.jpg</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -9849,7 +9848,7 @@
       </c>
       <c r="B374" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>259</v>
@@ -9860,9 +9859,9 @@
       <c r="E374" t="s">
         <v>0</v>
       </c>
-      <c r="F374" s="3" t="str">
+      <c r="F374" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/373.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/373.jpg</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,7 +9870,7 @@
       </c>
       <c r="B375" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>259</v>
@@ -9882,9 +9881,9 @@
       <c r="E375" t="s">
         <v>0</v>
       </c>
-      <c r="F375" s="3" t="str">
+      <c r="F375" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/374.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/374.jpg</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -9893,7 +9892,7 @@
       </c>
       <c r="B376" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>259</v>
@@ -9904,9 +9903,9 @@
       <c r="E376" t="s">
         <v>0</v>
       </c>
-      <c r="F376" s="3" t="str">
+      <c r="F376" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/375.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/375.jpg</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -9915,7 +9914,7 @@
       </c>
       <c r="B377" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>259</v>
@@ -9926,9 +9925,9 @@
       <c r="E377" t="s">
         <v>0</v>
       </c>
-      <c r="F377" s="3" t="str">
+      <c r="F377" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/376.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/376.jpg</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -9937,7 +9936,7 @@
       </c>
       <c r="B378" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>259</v>
@@ -9948,9 +9947,9 @@
       <c r="E378" t="s">
         <v>0</v>
       </c>
-      <c r="F378" s="3" t="str">
+      <c r="F378" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/377.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/377.jpg</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,7 +9958,7 @@
       </c>
       <c r="B379" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>259</v>
@@ -9970,9 +9969,9 @@
       <c r="E379" t="s">
         <v>0</v>
       </c>
-      <c r="F379" s="3" t="str">
+      <c r="F379" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/378.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/378.jpg</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -9981,7 +9980,7 @@
       </c>
       <c r="B380" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>259</v>
@@ -9992,9 +9991,9 @@
       <c r="E380" t="s">
         <v>0</v>
       </c>
-      <c r="F380" s="3" t="str">
+      <c r="F380" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/379.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/379.jpg</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -10003,7 +10002,7 @@
       </c>
       <c r="B381" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>259</v>
@@ -10014,9 +10013,9 @@
       <c r="E381" t="s">
         <v>0</v>
       </c>
-      <c r="F381" s="3" t="str">
+      <c r="F381" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/380.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/380.jpg</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -10025,7 +10024,7 @@
       </c>
       <c r="B382" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>259</v>
@@ -10036,9 +10035,9 @@
       <c r="E382" t="s">
         <v>0</v>
       </c>
-      <c r="F382" s="3" t="str">
+      <c r="F382" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/381.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/381.jpg</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -10047,7 +10046,7 @@
       </c>
       <c r="B383" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>259</v>
@@ -10058,9 +10057,9 @@
       <c r="E383" t="s">
         <v>0</v>
       </c>
-      <c r="F383" s="3" t="str">
+      <c r="F383" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/382.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/382.jpg</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -10069,7 +10068,7 @@
       </c>
       <c r="B384" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>259</v>
@@ -10080,9 +10079,9 @@
       <c r="E384" t="s">
         <v>0</v>
       </c>
-      <c r="F384" s="3" t="str">
+      <c r="F384" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/383.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/383.jpg</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -10091,7 +10090,7 @@
       </c>
       <c r="B385" t="str">
         <f t="shared" si="13"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>259</v>
@@ -10102,9 +10101,9 @@
       <c r="E385" t="s">
         <v>0</v>
       </c>
-      <c r="F385" s="3" t="str">
+      <c r="F385" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/384.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/384.jpg</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -10113,7 +10112,7 @@
       </c>
       <c r="B386" t="str">
         <f t="shared" ref="B386:B400" si="15">$H$1</f>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>259</v>
@@ -10124,9 +10123,9 @@
       <c r="E386" t="s">
         <v>0</v>
       </c>
-      <c r="F386" s="3" t="str">
+      <c r="F386" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/385.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/385.jpg</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,7 +10134,7 @@
       </c>
       <c r="B387" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>259</v>
@@ -10146,9 +10145,9 @@
       <c r="E387" t="s">
         <v>0</v>
       </c>
-      <c r="F387" s="3" t="str">
+      <c r="F387" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/386.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/386.jpg</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -10157,7 +10156,7 @@
       </c>
       <c r="B388" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>259</v>
@@ -10168,9 +10167,9 @@
       <c r="E388" t="s">
         <v>0</v>
       </c>
-      <c r="F388" s="3" t="str">
+      <c r="F388" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/387.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/387.jpg</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -10179,7 +10178,7 @@
       </c>
       <c r="B389" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>259</v>
@@ -10190,9 +10189,9 @@
       <c r="E389" t="s">
         <v>0</v>
       </c>
-      <c r="F389" s="3" t="str">
+      <c r="F389" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/388.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/388.jpg</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -10201,7 +10200,7 @@
       </c>
       <c r="B390" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>259</v>
@@ -10212,9 +10211,9 @@
       <c r="E390" t="s">
         <v>0</v>
       </c>
-      <c r="F390" s="3" t="str">
+      <c r="F390" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/389.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/389.jpg</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -10223,7 +10222,7 @@
       </c>
       <c r="B391" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>259</v>
@@ -10234,9 +10233,9 @@
       <c r="E391" t="s">
         <v>0</v>
       </c>
-      <c r="F391" s="3" t="str">
+      <c r="F391" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/390.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/390.jpg</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -10245,7 +10244,7 @@
       </c>
       <c r="B392" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>259</v>
@@ -10256,9 +10255,9 @@
       <c r="E392" t="s">
         <v>0</v>
       </c>
-      <c r="F392" s="3" t="str">
+      <c r="F392" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/391.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/391.jpg</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -10267,7 +10266,7 @@
       </c>
       <c r="B393" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>259</v>
@@ -10278,9 +10277,9 @@
       <c r="E393" t="s">
         <v>0</v>
       </c>
-      <c r="F393" s="3" t="str">
+      <c r="F393" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/392.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/392.jpg</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -10289,7 +10288,7 @@
       </c>
       <c r="B394" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>259</v>
@@ -10300,9 +10299,9 @@
       <c r="E394" t="s">
         <v>0</v>
       </c>
-      <c r="F394" s="3" t="str">
+      <c r="F394" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/393.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/393.jpg</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -10311,7 +10310,7 @@
       </c>
       <c r="B395" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>259</v>
@@ -10322,9 +10321,9 @@
       <c r="E395" t="s">
         <v>0</v>
       </c>
-      <c r="F395" s="3" t="str">
+      <c r="F395" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/394.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/394.jpg</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -10333,7 +10332,7 @@
       </c>
       <c r="B396" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>259</v>
@@ -10344,9 +10343,9 @@
       <c r="E396" t="s">
         <v>0</v>
       </c>
-      <c r="F396" s="3" t="str">
+      <c r="F396" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/395.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/395.jpg</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -10355,7 +10354,7 @@
       </c>
       <c r="B397" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>259</v>
@@ -10366,9 +10365,9 @@
       <c r="E397" t="s">
         <v>0</v>
       </c>
-      <c r="F397" s="3" t="str">
+      <c r="F397" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/396.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/396.jpg</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -10377,7 +10376,7 @@
       </c>
       <c r="B398" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>259</v>
@@ -10388,9 +10387,9 @@
       <c r="E398" t="s">
         <v>0</v>
       </c>
-      <c r="F398" s="3" t="str">
+      <c r="F398" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/397.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/397.jpg</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -10399,7 +10398,7 @@
       </c>
       <c r="B399" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>259</v>
@@ -10410,9 +10409,9 @@
       <c r="E399" t="s">
         <v>0</v>
       </c>
-      <c r="F399" s="3" t="str">
+      <c r="F399" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/398.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/398.jpg</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -10421,7 +10420,7 @@
       </c>
       <c r="B400" t="str">
         <f t="shared" si="15"/>
-        <v>P6SDA</v>
+        <v>S3SAA</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>259</v>
@@ -10432,9 +10431,9 @@
       <c r="E400" t="s">
         <v>0</v>
       </c>
-      <c r="F400" s="3" t="str">
+      <c r="F400" t="str">
         <f t="shared" si="14"/>
-        <v>https://libros.conaliteg.gob.mx/2023/c/P6SDA/399.jpg</v>
+        <v>https://libros.conaliteg.gob.mx/2023/c/S3SAA/399.jpg</v>
       </c>
     </row>
   </sheetData>
